--- a/HT-2/Club-BAC-11-Catálogo de atributos y relaciones.xlsx
+++ b/HT-2/Club-BAC-11-Catálogo de atributos y relaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBEA5B0-875B-A54C-A65E-C3135C175970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB355F8-9E42-414E-9BE6-53D26A87362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1980" windowWidth="38400" windowHeight="21100" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-11" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Descripción</t>
   </si>
@@ -52,6 +52,135 @@
   </si>
   <si>
     <t>Modelo conceptual</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>Afiliado</t>
+  </si>
+  <si>
+    <t>Membresía</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>Sede</t>
+  </si>
+  <si>
+    <t>Invitado</t>
+  </si>
+  <si>
+    <t>Instalación</t>
+  </si>
+  <si>
+    <t>Puesto (Instalación)</t>
+  </si>
+  <si>
+    <t>Arriendo (Instalación)</t>
+  </si>
+  <si>
+    <t>Piscina</t>
+  </si>
+  <si>
+    <t>Gimnasio</t>
+  </si>
+  <si>
+    <t>Restaurante</t>
+  </si>
+  <si>
+    <t>SalonDeEventos</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>Cancha</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>Periodicidad</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Identificación</t>
+  </si>
+  <si>
+    <t>Capacidad</t>
+  </si>
+  <si>
+    <t>Deporte</t>
+  </si>
+  <si>
+    <t>Un club tiene varios afiliados</t>
+  </si>
+  <si>
+    <t>Un club ofrece varias membresías</t>
+  </si>
+  <si>
+    <t>Un club tiene clientes (que no son afiliados ni tienen membresía)</t>
+  </si>
+  <si>
+    <t>Un club tiene empleados</t>
+  </si>
+  <si>
+    <t>Un club puede tener varias sedes o solo una</t>
+  </si>
+  <si>
+    <t>Una membresía le pertenece a un afiliado</t>
+  </si>
+  <si>
+    <t>La membresía tiene un costo que se paga de acuerdo con la periodicidad</t>
+  </si>
+  <si>
+    <t>Periodo de tiempo en el que se hacen los pagos de dicha membresía</t>
+  </si>
+  <si>
+    <t>Un afiliado puede tener invitados que accedan al club</t>
+  </si>
+  <si>
+    <t>Una sede tiene varias instalaciones</t>
+  </si>
+  <si>
+    <t>Un empleado tiene un cargo específico en una instalación determinada</t>
+  </si>
+  <si>
+    <t>Un cliente puede arrendar una instalación dentro del club</t>
+  </si>
+  <si>
+    <t>Una piscina es una instalación</t>
+  </si>
+  <si>
+    <t>Un gimnasio es una instalación</t>
+  </si>
+  <si>
+    <t>Un restaurante es una instalación</t>
+  </si>
+  <si>
+    <t>Un salón de eventos es una instalación</t>
+  </si>
+  <si>
+    <t>Un spa es una instalación</t>
+  </si>
+  <si>
+    <t>Una cancha es una instalación</t>
+  </si>
+  <si>
+    <t>Deporte que se puede practicar en dicha cancha</t>
   </si>
 </sst>
 </file>
@@ -93,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -116,11 +245,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -165,6 +340,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,16 +691,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView showFormulas="1" showGridLines="0" tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -519,7 +730,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -530,201 +741,421 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="18"/>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18"/>
+      <c r="B10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="22"/>
+      <c r="B23" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="24"/>
+      <c r="B25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="25"/>
+      <c r="B26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="22"/>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="25"/>
+      <c r="B36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="25"/>
+      <c r="B38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="28"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="15">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
